--- a/data/output/FV2310_FV2304/MSCONS/13007.xlsx
+++ b/data/output/FV2310_FV2304/MSCONS/13007.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3726" uniqueCount="310">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3747" uniqueCount="310">
+  <si>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>Nutzdaten-Kopfsegment</t>
@@ -1044,6 +1044,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U168" totalsRowShown="0">
+  <autoFilter ref="A1:U168"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2304"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="3" name="Segment_FV2304"/>
+    <tableColumn id="4" name="Datenelement_FV2304"/>
+    <tableColumn id="5" name="Segment ID_FV2304"/>
+    <tableColumn id="6" name="Code_FV2304"/>
+    <tableColumn id="7" name="Qualifier_FV2304"/>
+    <tableColumn id="8" name="Beschreibung_FV2304"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="10" name="Bedingung_FV2304"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2310"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="14" name="Segment_FV2310"/>
+    <tableColumn id="15" name="Datenelement_FV2310"/>
+    <tableColumn id="16" name="Segment ID_FV2310"/>
+    <tableColumn id="17" name="Code_FV2310"/>
+    <tableColumn id="18" name="Qualifier_FV2310"/>
+    <tableColumn id="19" name="Beschreibung_FV2310"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="21" name="Bedingung_FV2310"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1333,7 +1363,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U168"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9256,5 +9289,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2310_FV2304/MSCONS/13007.xlsx
+++ b/data/output/FV2310_FV2304/MSCONS/13007.xlsx
@@ -1979,7 +1979,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="K15" s="2"/>
       <c r="L15" s="4"/>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N15" s="2"/>
@@ -2933,7 +2933,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N22" s="2"/>
@@ -3109,7 +3109,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N26" s="2"/>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -3485,7 +3485,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -3777,7 +3777,7 @@
       </c>
       <c r="K40" s="2"/>
       <c r="L40" s="4"/>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N40" s="2" t="s">
@@ -3955,7 +3955,7 @@
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="2" t="s">
+      <c r="M44" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N44" s="2" t="s">
@@ -4315,7 +4315,7 @@
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4603,7 +4603,7 @@
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N57" s="2"/>
@@ -4689,7 +4689,7 @@
         <v>298</v>
       </c>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -4817,7 +4817,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5203,7 +5203,7 @@
       </c>
       <c r="K70" s="2"/>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5407,7 +5407,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -5609,7 +5609,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -5745,7 +5745,7 @@
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -5939,7 +5939,7 @@
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -6295,7 +6295,7 @@
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -6499,7 +6499,7 @@
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N96" s="2" t="s">
@@ -6705,7 +6705,7 @@
         <v>306</v>
       </c>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -7345,7 +7345,7 @@
         <v>307</v>
       </c>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -8687,7 +8687,7 @@
         <v>308</v>
       </c>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -9921,7 +9921,7 @@
         <v>309</v>
       </c>
       <c r="L160" s="4"/>
-      <c r="M160" s="2" t="s">
+      <c r="M160" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N160" s="2" t="s">
@@ -10071,7 +10071,7 @@
       </c>
       <c r="K163" s="2"/>
       <c r="L163" s="4"/>
-      <c r="M163" s="2" t="s">
+      <c r="M163" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N163" s="2"/>
@@ -10201,7 +10201,7 @@
       </c>
       <c r="K166" s="2"/>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N166" s="2"/>
